--- a/website/src/components/Submission/FileUpload/test_files/testfile_with_second_sheet.xlsx
+++ b/website/src/components/Submission/FileUpload/test_files/testfile_with_second_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chachen/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5F3D60B1-8123-5F4A-81D4-1E2AADEBB059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEF08376-5DAD-0F40-865F-7B2F4952E8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="14540" windowWidth="33780" windowHeight="8300" xr2:uid="{1FC8086B-4008-2144-9BDD-834F2AB430CF}"/>
+    <workbookView xWindow="10020" yWindow="6960" windowWidth="33780" windowHeight="8300" xr2:uid="{1FC8086B-4008-2144-9BDD-834F2AB430CF}"/>
   </bookViews>
   <sheets>
     <sheet name="testfile" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -528,8 +531,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -908,7 +912,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,7 +937,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>41256</v>
       </c>
       <c r="C2">
@@ -944,7 +948,7 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>41256</v>
       </c>
       <c r="C3">
@@ -955,7 +959,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>41256</v>
       </c>
       <c r="C4">
@@ -966,7 +970,7 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>41256</v>
       </c>
       <c r="C5">
